--- a/biology/Zoologie/Chlorurus_sordidus/Chlorurus_sordidus.xlsx
+++ b/biology/Zoologie/Chlorurus_sordidus/Chlorurus_sordidus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorurus sordidus · Poisson-perroquet brûlé(m), Poisson-perroquet grenat(f)
 Chlorurus sordidus, communément nommé Poisson-perroquet brûlé pour le mâle et Poisson-perroquet grenat pour la femelle, est une espèce de poisson marin de la famille des Scaridae.
@@ -512,9 +524,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 40 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 40 cm.
 			Juvenile
 			Adulte
 </t>
@@ -545,9 +559,11 @@
           <t>Habitat et répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Poisson-perroquet brûlé ou grenat est présent dans les eaux tropicales de la région Indo-Pacifique, Mer Rouge incluse[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Poisson-perroquet brûlé ou grenat est présent dans les eaux tropicales de la région Indo-Pacifique, Mer Rouge incluse.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette espèce a un nombre important de synonymes :
 Callyodon albipunctatus Seale, 1910
